--- a/artfynd/A 15365-2023 artfynd.xlsx
+++ b/artfynd/A 15365-2023 artfynd.xlsx
@@ -1122,7 +1122,7 @@
         <v>129523489</v>
       </c>
       <c r="B6" t="n">
-        <v>57291</v>
+        <v>57295</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 15365-2023 artfynd.xlsx
+++ b/artfynd/A 15365-2023 artfynd.xlsx
@@ -1016,7 +1016,7 @@
         <v>129523493</v>
       </c>
       <c r="B5" t="n">
-        <v>58453</v>
+        <v>58605</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
